--- a/data/trans_bre/iP16_n_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/iP16_n_R2-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,83</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>11,47</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-5,42</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-4,13</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-8,18%</t>
+          <t>-2,28%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>29,2%</t>
+          <t>137,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-40,97%</t>
+          <t>-6,7%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-1,65%</t>
+          <t>-10,47%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,41; 12,57</t>
+          <t>-16,5; 17,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 18,07</t>
+          <t>0,99; 23,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,22; 5,46</t>
+          <t>-12,58; 9,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,08; 12,28</t>
+          <t>-20,69; 12,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-37,29; 32,2</t>
+          <t>-36,68; 62,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-46,95; 246,57</t>
+          <t>0,34; 567,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-88,68; 120,99</t>
+          <t>-72,26; 161,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-44,68; 51,43</t>
+          <t>-42,58; 40,68</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-3,83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,47</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-5,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,13</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,28%</t>
+          <t>-8,18%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>137,0%</t>
+          <t>29,2%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-6,7%</t>
+          <t>-40,97%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-10,47%</t>
+          <t>-1,65%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,5; 17,81</t>
+          <t>-20,41; 12,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 23,54</t>
+          <t>-9,35; 18,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,58; 9,51</t>
+          <t>-18,22; 5,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-20,69; 12,42</t>
+          <t>-16,08; 12,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-36,68; 62,33</t>
+          <t>-37,29; 32,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 567,03</t>
+          <t>-46,95; 246,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-72,26; 161,96</t>
+          <t>-88,68; 120,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-42,58; 40,68</t>
+          <t>-44,68; 51,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/iP16_n_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/iP16_n_R2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>-8,6</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>16,44</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>-7,98%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-14,15%</t>
+          <t>17,89%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>-34,69%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>45,4%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,71; 16,42</t>
+          <t>-19,06; 15,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,87; 9,11</t>
+          <t>-11,47; 19,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 14,33</t>
+          <t>-26,93; 7,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,55; 21,11</t>
+          <t>-5,67; 40,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-33,3; 71,66</t>
+          <t>-51,2; 89,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-54,84; 83,93</t>
+          <t>-50,96; 244,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-50,41; 165,05</t>
+          <t>-77,13; 68,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-35,11; 66,35</t>
+          <t>-11,97; 169,37</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,47</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>5,36</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,13</t>
+          <t>-13,39</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-2,28%</t>
+          <t>-0,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>137,0%</t>
+          <t>34,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-6,7%</t>
+          <t>58,2%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-10,47%</t>
+          <t>-31,47%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,5; 17,81</t>
+          <t>-17,51; 15,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 23,54</t>
+          <t>-7,09; 16,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,58; 9,51</t>
+          <t>-5,1; 16,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,69; 12,42</t>
+          <t>-30,49; 2,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,68; 62,33</t>
+          <t>-37,39; 48,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 567,03</t>
+          <t>-42,36; 203,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-72,26; 161,96</t>
+          <t>-40,97; 360,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-42,58; 40,68</t>
+          <t>-59,7; 9,16</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,83</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,42</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>23,29</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-8,18%</t>
+          <t>-7,38%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>29,2%</t>
+          <t>25,1%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-40,97%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,65%</t>
+          <t>88,05%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-20,41; 12,57</t>
+          <t>-25,48; 20,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 18,07</t>
+          <t>-12,48; 14,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,22; 5,46</t>
+          <t>-12,25; 12,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,08; 12,28</t>
+          <t>4,37; 41,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-37,29; 32,2</t>
+          <t>-49,45; 60,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-46,95; 246,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-88,68; 120,99</t>
+          <t>-78,04; 297,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-44,68; 51,43</t>
+          <t>10,78; 247,87</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>7,11</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-8,86</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-12,55</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-3,85%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>30,1%</t>
+          <t>40,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-9,02%</t>
+          <t>-60,13%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-2,89%</t>
+          <t>-38,53%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 8,41</t>
+          <t>-19,58; 21,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 10,68</t>
+          <t>-12,05; 25,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 5,45</t>
+          <t>-23,62; 4,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,95; 7,36</t>
+          <t>-28,94; 3,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,31; 23,04</t>
+          <t>-37,15; 58,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-18,56; 101,71</t>
+          <t>-46,83; 296,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-50,61; 55,0</t>
+          <t>-100,0; 129,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-29,92; 24,87</t>
+          <t>-70,39; 11,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-1,53</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,15</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-1,24</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,99</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-3,85%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>30,1%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-9,02%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-2,89%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-10,98; 7,01</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,38; 10,98</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-9,21; 5,07</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-10,96; 8,71</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-24,36; 20,62</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-14,77; 101,13</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-47,85; 47,8</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-28,39; 28,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/iP16_n_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/iP16_n_R2-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,06; 15,78</t>
+          <t>-19,19; 14,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,47; 19,05</t>
+          <t>-12,99; 16,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-26,93; 7,78</t>
+          <t>-25,85; 8,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 40,75</t>
+          <t>-8,74; 40,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-51,2; 89,19</t>
+          <t>-52,97; 84,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-50,96; 244,85</t>
+          <t>-57,17; 180,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-77,13; 68,59</t>
+          <t>-76,74; 69,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 169,37</t>
+          <t>-19,42; 151,95</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,51; 15,51</t>
+          <t>-17,23; 15,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 16,32</t>
+          <t>-7,42; 15,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 16,71</t>
+          <t>-4,47; 17,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-30,49; 2,38</t>
+          <t>-27,68; 2,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-37,39; 48,47</t>
+          <t>-36,21; 46,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-42,36; 203,29</t>
+          <t>-41,57; 182,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-40,97; 360,42</t>
+          <t>-40,04; 444,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-59,7; 9,16</t>
+          <t>-57,28; 7,28</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-25,48; 20,07</t>
+          <t>-27,63; 19,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 14,78</t>
+          <t>-10,65; 13,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 12,35</t>
+          <t>-12,62; 12,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,37; 41,99</t>
+          <t>4,39; 40,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-49,45; 60,44</t>
+          <t>-51,59; 72,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,29; 735,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-78,04; 297,7</t>
+          <t>-77,74; 280,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,78; 247,87</t>
+          <t>12,48; 254,17</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-19,58; 21,39</t>
+          <t>-18,24; 17,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,05; 25,74</t>
+          <t>-10,44; 26,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,62; 4,67</t>
+          <t>-23,65; 4,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,94; 3,12</t>
+          <t>-28,55; 3,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-37,15; 58,34</t>
+          <t>-35,72; 52,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-46,83; 296,78</t>
+          <t>-48,3; 299,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 129,17</t>
+          <t>-100,0; 142,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-70,39; 11,39</t>
+          <t>-70,91; 17,12</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 7,01</t>
+          <t>-10,37; 7,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 10,98</t>
+          <t>-2,78; 11,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 5,07</t>
+          <t>-8,22; 5,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,96; 8,71</t>
+          <t>-10,28; 8,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-24,36; 20,62</t>
+          <t>-23,9; 22,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,77; 101,13</t>
+          <t>-17,9; 112,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-47,85; 47,8</t>
+          <t>-46,97; 52,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-28,39; 28,94</t>
+          <t>-27,07; 27,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/iP16_n_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/iP16_n_R2-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,44</t>
+          <t>17,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>45,4%</t>
+          <t>48,72%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,19; 14,74</t>
+          <t>-22,39; 16,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,99; 16,32</t>
+          <t>-11,42; 17,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-25,85; 8,13</t>
+          <t>-27,05; 8,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 40,8</t>
+          <t>-6,9; 39,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-52,97; 84,23</t>
+          <t>-58,47; 92,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-57,17; 180,48</t>
+          <t>-49,53; 195,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-76,74; 69,09</t>
+          <t>-77,33; 60,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 151,95</t>
+          <t>-18,8; 152,25</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-13,39</t>
+          <t>-14,16</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-31,47%</t>
+          <t>-33,64%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,23; 15,44</t>
+          <t>-16,14; 15,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 15,89</t>
+          <t>-6,49; 15,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 17,0</t>
+          <t>-5,77; 16,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-27,68; 2,8</t>
+          <t>-31,68; 1,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,21; 46,04</t>
+          <t>-34,33; 47,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-41,57; 182,03</t>
+          <t>-39,32; 208,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-40,04; 444,5</t>
+          <t>-46,7; 376,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-57,28; 7,28</t>
+          <t>-62,95; 5,85</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23,29</t>
+          <t>23,31</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>88,05%</t>
+          <t>90,84%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-27,63; 19,54</t>
+          <t>-25,03; 20,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,65; 13,57</t>
+          <t>-12,01; 14,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,62; 12,71</t>
+          <t>-13,05; 13,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,39; 40,74</t>
+          <t>4,66; 41,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-51,59; 72,76</t>
+          <t>-48,86; 68,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-80,29; 735,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-77,74; 280,68</t>
+          <t>-76,3; 360,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,48; 254,17</t>
+          <t>12,63; 231,51</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-12,55</t>
+          <t>-18,06</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-38,53%</t>
+          <t>-55,8%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-18,24; 17,71</t>
+          <t>-17,79; 20,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 26,92</t>
+          <t>-12,37; 27,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,65; 4,27</t>
+          <t>-24,15; 5,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,55; 3,52</t>
+          <t>-38,43; -3,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,72; 52,18</t>
+          <t>-33,63; 61,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-48,3; 299,32</t>
+          <t>-49,42; 286,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 142,84</t>
+          <t>-100,0; 200,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-70,91; 17,12</t>
+          <t>-86,87; -10,42</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-5,08</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,89%</t>
+          <t>-15,13%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 7,78</t>
+          <t>-11,39; 8,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 11,43</t>
+          <t>-3,18; 10,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 5,28</t>
+          <t>-8,63; 5,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 8,37</t>
+          <t>-21,37; 3,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-23,9; 22,25</t>
+          <t>-26,31; 23,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,9; 112,92</t>
+          <t>-18,56; 101,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-46,97; 52,31</t>
+          <t>-50,61; 55,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-27,07; 27,21</t>
+          <t>-54,54; 12,26</t>
         </is>
       </c>
     </row>
